--- a/example_data/excel_example.xlsx
+++ b/example_data/excel_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/barnetta_qut_edu_au/Documents/fraud/baseline_tables/baseline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/barnetta_qut_edu_au/Documents/fraud/baseline_tables/baseline/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="11_F25DC773A252ABDACC1048ED099E4FC05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{480873F6-CEE0-474E-9B1F-FA80BE4DDE87}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="11_F25DC773A252ABDACC1048ED099E4FC05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAD7CE6B-D8A5-407C-92AB-6F6B780761FE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMCID = PMC5640030" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Only enter values in the yellow cells, green cells are optional. Add more yellow cells if there are more rows in the table. Do not change any other cells. Summary statistics that are medians cannot be used.</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Excel example for checking baseline tables for randomised trials</t>
+  </si>
+  <si>
+    <t>Only enter values in the yellow cells, green cells are optional. Add more green and yellow rows if there are more rows (variables) in the table. Add more yellow columns and headers if there are more groups (columns). Do not change any other cells. Summary statistics that are medians cannot be used.</t>
   </si>
 </sst>
 </file>
@@ -225,11 +225,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -520,7 +519,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,22 +529,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>26</v>
+      <c r="A3" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -567,10 +566,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
         <v>44</v>
       </c>
       <c r="C5" s="2">
@@ -579,7 +578,7 @@
       <c r="D5" s="2">
         <v>9</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>47</v>
       </c>
       <c r="F5" s="2">
@@ -590,10 +589,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7">
         <v>44</v>
       </c>
       <c r="C6" s="2">
@@ -602,7 +601,7 @@
       <c r="D6" s="2">
         <v>0.25</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>47</v>
       </c>
       <c r="F6" s="2">
@@ -613,221 +612,221 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7">
+        <v>44</v>
+      </c>
+      <c r="C7" s="5">
+        <v>39</v>
+      </c>
+      <c r="D7" s="5">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>47</v>
+      </c>
+      <c r="F7" s="5">
+        <v>38</v>
+      </c>
+      <c r="G7" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="8">
-        <v>44</v>
-      </c>
-      <c r="C7" s="6">
-        <v>39</v>
-      </c>
-      <c r="D7" s="6">
-        <v>14</v>
-      </c>
-      <c r="E7" s="8">
-        <v>47</v>
-      </c>
-      <c r="F7" s="6">
-        <v>38</v>
-      </c>
-      <c r="G7" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="7">
+        <v>44</v>
+      </c>
+      <c r="C8" s="7">
+        <v>114</v>
+      </c>
+      <c r="D8" s="7">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7">
+        <v>47</v>
+      </c>
+      <c r="F8" s="7">
+        <v>117</v>
+      </c>
+      <c r="G8" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8">
-        <v>44</v>
-      </c>
-      <c r="C8" s="8">
-        <v>114</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="B9" s="7">
+        <v>44</v>
+      </c>
+      <c r="C9" s="7">
+        <v>67</v>
+      </c>
+      <c r="D9" s="7">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7">
+        <v>70</v>
+      </c>
+      <c r="G9" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="8">
-        <v>47</v>
-      </c>
-      <c r="F8" s="8">
-        <v>117</v>
-      </c>
-      <c r="G8" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="8">
-        <v>44</v>
-      </c>
-      <c r="C9" s="8">
-        <v>67</v>
-      </c>
-      <c r="D9" s="8">
-        <v>10</v>
-      </c>
-      <c r="E9" s="8">
-        <v>47</v>
-      </c>
-      <c r="F9" s="8">
-        <v>70</v>
-      </c>
-      <c r="G9" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="7">
+        <v>44</v>
+      </c>
+      <c r="C10" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="E10" s="7">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="G10" s="7">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8">
-        <v>44</v>
-      </c>
-      <c r="C10" s="8">
-        <v>6.8</v>
-      </c>
-      <c r="D10" s="8">
-        <v>10.6</v>
-      </c>
-      <c r="E10" s="8">
-        <v>47</v>
-      </c>
-      <c r="F10" s="8">
-        <v>9.6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="7">
+        <v>44</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>47</v>
+      </c>
+      <c r="F11" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8">
-        <v>44</v>
-      </c>
-      <c r="C11" s="8">
-        <v>3.9</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="E11" s="8">
-        <v>47</v>
-      </c>
-      <c r="F11" s="8">
-        <v>4.2</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="B12" s="7">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E12" s="7">
+        <v>47</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7">
+        <v>44</v>
+      </c>
+      <c r="C13" s="7">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7">
+        <v>47</v>
+      </c>
+      <c r="F13" s="7">
+        <v>25</v>
+      </c>
+      <c r="G13" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="7">
+        <v>44</v>
+      </c>
+      <c r="C14" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="E14" s="7">
+        <v>47</v>
+      </c>
+      <c r="F14" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="G14" s="7">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="8">
-        <v>44</v>
-      </c>
-      <c r="C12" s="8">
-        <v>3.7</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E12" s="8">
-        <v>47</v>
-      </c>
-      <c r="F12" s="8">
-        <v>3.8</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="8">
-        <v>44</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="8">
-        <v>26</v>
-      </c>
-      <c r="E13" s="8">
-        <v>47</v>
-      </c>
-      <c r="F13" s="8">
-        <v>25</v>
-      </c>
-      <c r="G13" s="8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="8">
-        <v>44</v>
-      </c>
-      <c r="C14" s="8">
-        <v>6.4</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="E14" s="8">
-        <v>47</v>
-      </c>
-      <c r="F14" s="8">
-        <v>6.6</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="8">
-        <v>44</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="B15" s="7">
+        <v>44</v>
+      </c>
+      <c r="C15" s="7">
         <v>7.8</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E15" s="8">
-        <v>47</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="E15" s="7">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7">
         <v>7.6</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>4.3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -838,143 +837,143 @@
       <c r="D17" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="7">
+        <v>31</v>
+      </c>
+      <c r="C18" s="7">
+        <v>44</v>
+      </c>
+      <c r="D18" s="7">
+        <v>36</v>
+      </c>
+      <c r="E18" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="8">
-        <v>31</v>
-      </c>
-      <c r="C18" s="8">
-        <v>44</v>
-      </c>
-      <c r="D18" s="8">
-        <v>36</v>
-      </c>
-      <c r="E18" s="8">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="B19" s="7">
+        <v>37</v>
+      </c>
+      <c r="C19" s="7">
+        <v>44</v>
+      </c>
+      <c r="D19" s="7">
+        <v>39</v>
+      </c>
+      <c r="E19" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="8">
-        <v>37</v>
-      </c>
-      <c r="C19" s="8">
-        <v>44</v>
-      </c>
-      <c r="D19" s="8">
-        <v>39</v>
-      </c>
-      <c r="E19" s="8">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="7">
+        <v>4</v>
+      </c>
+      <c r="C20" s="7">
+        <v>44</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="8">
-        <v>4</v>
-      </c>
-      <c r="C20" s="8">
-        <v>44</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="B21" s="7">
         <v>10</v>
       </c>
-      <c r="B21" s="8">
+      <c r="C21" s="7">
+        <v>44</v>
+      </c>
+      <c r="D21" s="7">
         <v>10</v>
       </c>
-      <c r="C21" s="8">
-        <v>44</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="E21" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="8">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="B22" s="7">
+        <v>34</v>
+      </c>
+      <c r="C22" s="7">
+        <v>44</v>
+      </c>
+      <c r="D22" s="7">
+        <v>28</v>
+      </c>
+      <c r="E22" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="8">
-        <v>34</v>
-      </c>
-      <c r="C22" s="8">
-        <v>44</v>
-      </c>
-      <c r="D22" s="8">
-        <v>28</v>
-      </c>
-      <c r="E22" s="8">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>9</v>
       </c>
-      <c r="C23" s="8">
-        <v>44</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="C23" s="7">
+        <v>44</v>
+      </c>
+      <c r="D23" s="7">
         <v>15</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="7">
+        <v>35</v>
+      </c>
+      <c r="C24" s="7">
+        <v>44</v>
+      </c>
+      <c r="D24" s="7">
+        <v>35</v>
+      </c>
+      <c r="E24" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="8">
-        <v>35</v>
-      </c>
-      <c r="C24" s="8">
-        <v>44</v>
-      </c>
-      <c r="D24" s="8">
-        <v>35</v>
-      </c>
-      <c r="E24" s="8">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>9</v>
       </c>
-      <c r="C25" s="8">
-        <v>44</v>
-      </c>
-      <c r="D25" s="8">
+      <c r="C25" s="7">
+        <v>44</v>
+      </c>
+      <c r="D25" s="7">
         <v>10</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>47</v>
       </c>
     </row>
